--- a/data/claims.xlsx
+++ b/data/claims.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17140" yWindow="600" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="18420" yWindow="0" windowWidth="19680" windowHeight="12980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="claims" sheetId="1" r:id="rId1"/>
+    <sheet name="sales" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Condition</t>
   </si>
@@ -52,13 +53,118 @@
   </si>
   <si>
     <t>Growth</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Sales ($B)</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>2011 Rank</t>
+  </si>
+  <si>
+    <t>2010 Rank</t>
+  </si>
+  <si>
+    <t>Humira</t>
+  </si>
+  <si>
+    <t>Enbrel</t>
+  </si>
+  <si>
+    <t>Remicade</t>
+  </si>
+  <si>
+    <t>Neulasta</t>
+  </si>
+  <si>
+    <t>Rituxan</t>
+  </si>
+  <si>
+    <t>Copaxone</t>
+  </si>
+  <si>
+    <t>Epogen</t>
+  </si>
+  <si>
+    <t>Avastin</t>
+  </si>
+  <si>
+    <t>Atipla</t>
+  </si>
+  <si>
+    <t>Truvada</t>
+  </si>
+  <si>
+    <t>Revlimid</t>
+  </si>
+  <si>
+    <t>Lucentis</t>
+  </si>
+  <si>
+    <t>Herceptin</t>
+  </si>
+  <si>
+    <t>Avonex</t>
+  </si>
+  <si>
+    <t>Gleevex</t>
+  </si>
+  <si>
+    <t>Enoxaparin</t>
+  </si>
+  <si>
+    <t>Procrit</t>
+  </si>
+  <si>
+    <t>Eloxatin</t>
+  </si>
+  <si>
+    <t>Lovenox</t>
+  </si>
+  <si>
+    <t>Rebif</t>
+  </si>
+  <si>
+    <t>Rheumatoid arthritis, Crohn's disease</t>
+  </si>
+  <si>
+    <t>Rheumatoid arthritis</t>
+  </si>
+  <si>
+    <t>Oncology</t>
+  </si>
+  <si>
+    <t>Rheumatoid arthritis, Oncology</t>
+  </si>
+  <si>
+    <t>Multiple sclerosis</t>
+  </si>
+  <si>
+    <t>Anemia</t>
+  </si>
+  <si>
+    <t>HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Macular degenration</t>
+  </si>
+  <si>
+    <t>Anti-coagulation</t>
+  </si>
+  <si>
+    <t>NM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,6 +188,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -100,23 +213,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
@@ -615,4 +741,386 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E21" sqref="A1:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>3.52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>3.51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>3.47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>3.32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>2.96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>2.77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>2.66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>2.57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>1.92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>1.83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>1.75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>1.66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>1.56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>1.51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>1.36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>1.21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>1.3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>1.06</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>1.06</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>